--- a/data/trans_bre/IMC_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IMC_R2-Estudios-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad</t>
+          <t>Población con obesidad</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/IMC_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IMC_R2-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>9.90846946225156</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.729599186932944</v>
+        <v>3.729599186932939</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3618104237388245</v>
@@ -649,7 +649,7 @@
         <v>0.4196214255729562</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1492553414004204</v>
+        <v>0.1492553414004202</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.449955964643143</v>
+        <v>3.061197147438352</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.246144443395588</v>
+        <v>6.04345118384367</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.083596459026733</v>
+        <v>5.344547157119829</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.6384863775744577</v>
+        <v>-1.086289695113501</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1638333039212071</v>
+        <v>0.1461475139729104</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2264438363735658</v>
+        <v>0.2232178429902903</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1984382506789393</v>
+        <v>0.2164658250923228</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.01738861387418558</v>
+        <v>-0.04216829719046351</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.25458400737251</v>
+        <v>9.912448688007244</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.77593749094249</v>
+        <v>14.09978592081004</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.57826936816228</v>
+        <v>13.95867822033111</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.555407424532657</v>
+        <v>7.871579804938254</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6100887950330146</v>
+        <v>0.5851825863779541</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6050117779411959</v>
+        <v>0.6302251634134183</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6967444351289632</v>
+        <v>0.6446860162447124</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.389752173206295</v>
+        <v>0.3543575542925038</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-1.849034571835193</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.190249923760706</v>
+        <v>-1.190249923760703</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.0458540249737735</v>
@@ -749,7 +749,7 @@
         <v>-0.1140134401985026</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.07250229640843062</v>
+        <v>-0.07250229640843042</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.437130167402512</v>
+        <v>-2.477100467382108</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.9675384722961043</v>
+        <v>-1.219596568447123</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.186396633290501</v>
+        <v>-4.126036480480252</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.312860783900331</v>
+        <v>-3.363835835791603</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.241688422484959</v>
+        <v>-0.2368254072520584</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.06363354123617752</v>
+        <v>-0.07839763177729778</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.241115131536054</v>
+        <v>-0.236920197801204</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1897564085793109</v>
+        <v>-0.1914049656829883</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.692878342954838</v>
+        <v>1.482330162158016</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.815541214852187</v>
+        <v>3.540636611630513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5096710287393901</v>
+        <v>0.3875750434573814</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8339164677494925</v>
+        <v>0.94404889915676</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1976007228252131</v>
+        <v>0.1819984745789728</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2998192000290579</v>
+        <v>0.2674438458845651</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03870253568901259</v>
+        <v>0.02642818313338655</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.05406239878615375</v>
+        <v>0.05898587554576255</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-1.916167607913416</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.924593611158784</v>
+        <v>-1.924593611158781</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.2756103424337175</v>
@@ -849,7 +849,7 @@
         <v>-0.1668903981095976</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1523256233695348</v>
+        <v>-0.1523256233695346</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.189067791517037</v>
+        <v>-6.512502052877545</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.052542470703349</v>
+        <v>-8.549711943429553</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.174377727794375</v>
+        <v>-5.80722531702675</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.391302875509561</v>
+        <v>-5.105853418928865</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5480416235556633</v>
+        <v>-0.5511592363148659</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6325981757263849</v>
+        <v>-0.646126345015513</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4557629084740601</v>
+        <v>-0.4358880881385821</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.362906570172205</v>
+        <v>-0.3519971918579086</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.559554127384164</v>
+        <v>0.9529787857816558</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.4235492461179585</v>
+        <v>-0.4715420317144132</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.698412367275862</v>
+        <v>2.302395728163118</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.27885945428323</v>
+        <v>1.651210427284862</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2541627099376659</v>
+        <v>0.1493127939328195</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.03069026050963084</v>
+        <v>-0.03352354801722179</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1723108930684536</v>
+        <v>0.2585142775422865</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1166290646218863</v>
+        <v>0.1635972479289639</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.638093767300389</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1475954988338884</v>
+        <v>0.1475954988338912</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2240326886348492</v>
@@ -949,7 +949,7 @@
         <v>0.09603304165521359</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.008679563943158313</v>
+        <v>0.008679563943158478</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.040408889757528</v>
+        <v>1.108522235356534</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.532964041243371</v>
+        <v>2.56482593819901</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.5808458157883987</v>
+        <v>-0.2190774363144334</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.607356435901889</v>
+        <v>-1.535357323144791</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07588936386131169</v>
+        <v>0.08327168010072468</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1444282202762872</v>
+        <v>0.1506148923461509</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.03359949913826053</v>
+        <v>-0.01329110413433924</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.08820932788197595</v>
+        <v>-0.08459412404052463</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.414473657045632</v>
+        <v>4.520782258611498</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.494178796216893</v>
+        <v>6.453053165890024</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.38772492758401</v>
+        <v>3.839617305228995</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.697366170256651</v>
+        <v>1.851495751139533</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3880958919058426</v>
+        <v>0.3955020132755133</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4166818831852379</v>
+        <v>0.4211976388942617</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2100043001729711</v>
+        <v>0.2368909637987427</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1050449404107298</v>
+        <v>0.1161810839101427</v>
       </c>
     </row>
     <row r="16">
